--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.022120-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.022120-2.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4209,12 +4209,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7073,12 +7073,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7199,12 +7199,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7325,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7745,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7997,12 +7997,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8207,12 +8207,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8757,12 +8757,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9135,12 +9135,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9471,12 +9471,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9559,12 +9559,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9601,12 +9601,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10277,12 +10277,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10487,12 +10487,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10739,12 +10739,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11201,12 +11201,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11369,12 +11369,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11705,12 +11705,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11877,12 +11877,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12171,12 +12171,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12213,12 +12213,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13263,12 +13263,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13431,12 +13431,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13515,12 +13515,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13557,12 +13557,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13809,12 +13809,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14103,12 +14103,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14145,12 +14145,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14229,12 +14229,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14439,12 +14439,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14481,12 +14481,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15027,12 +15027,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15069,12 +15069,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15111,12 +15111,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15195,12 +15195,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16753,12 +16753,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17173,12 +17173,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17257,12 +17257,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17299,12 +17299,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17551,12 +17551,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17593,12 +17593,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17887,12 +17887,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17971,12 +17971,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18223,12 +18223,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18265,12 +18265,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18349,12 +18349,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18391,12 +18391,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18475,12 +18475,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19067,12 +19067,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19197,12 +19197,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19625,12 +19625,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19751,12 +19751,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19839,12 +19839,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19881,12 +19881,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20259,12 +20259,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20511,12 +20511,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21141,12 +21141,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21519,12 +21519,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22321,12 +22321,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22493,12 +22493,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22703,12 +22703,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22913,12 +22913,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23799,12 +23799,12 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24261,12 +24261,12 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25311,12 +25311,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25567,12 +25567,12 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25735,12 +25735,12 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26453,12 +26453,12 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26747,12 +26747,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26789,12 +26789,12 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27797,12 +27797,12 @@
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28347,12 +28347,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28389,12 +28389,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28557,12 +28557,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29191,12 +29191,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29275,12 +29275,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29443,12 +29443,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29821,12 +29821,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30157,12 +30157,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -30539,12 +30539,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30581,12 +30581,12 @@
       <c r="H716" t="inlineStr"/>
       <c r="I716" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30665,12 +30665,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30875,12 +30875,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30959,12 +30959,12 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31001,12 +31001,12 @@
       <c r="H726" t="inlineStr"/>
       <c r="I726" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31337,12 +31337,12 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31421,12 +31421,12 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31505,12 +31505,12 @@
       <c r="H738" t="inlineStr"/>
       <c r="I738" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31967,12 +31967,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32181,12 +32181,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32223,12 +32223,12 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32307,12 +32307,12 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32979,12 +32979,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33105,12 +33105,12 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33147,12 +33147,12 @@
       <c r="H777" t="inlineStr"/>
       <c r="I777" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34029,12 +34029,12 @@
       <c r="H798" t="inlineStr"/>
       <c r="I798" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34113,12 +34113,12 @@
       <c r="H800" t="inlineStr"/>
       <c r="I800" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34281,12 +34281,12 @@
       <c r="H804" t="inlineStr"/>
       <c r="I804" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34533,12 +34533,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34785,12 +34785,12 @@
       <c r="H816" t="inlineStr"/>
       <c r="I816" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34953,12 +34953,12 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35205,12 +35205,12 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35625,12 +35625,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35919,12 +35919,12 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35965,12 +35965,12 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36007,12 +36007,12 @@
       <c r="H845" t="inlineStr"/>
       <c r="I845" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36427,12 +36427,12 @@
       <c r="H855" t="inlineStr"/>
       <c r="I855" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36889,12 +36889,12 @@
       <c r="H866" t="inlineStr"/>
       <c r="I866" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36931,12 +36931,12 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37603,12 +37603,12 @@
       <c r="H883" t="inlineStr"/>
       <c r="I883" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37645,12 +37645,12 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37771,12 +37771,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38489,12 +38489,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38951,12 +38951,12 @@
       <c r="H915" t="inlineStr"/>
       <c r="I915" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39119,12 +39119,12 @@
       <c r="H919" t="inlineStr"/>
       <c r="I919" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39203,12 +39203,12 @@
       <c r="H921" t="inlineStr"/>
       <c r="I921" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39539,12 +39539,12 @@
       <c r="H929" t="inlineStr"/>
       <c r="I929" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39749,12 +39749,12 @@
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39791,12 +39791,12 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40001,12 +40001,12 @@
       <c r="H940" t="inlineStr"/>
       <c r="I940" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40127,12 +40127,12 @@
       <c r="H943" t="inlineStr"/>
       <c r="I943" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
